--- a/org134-combined.xlsx
+++ b/org134-combined.xlsx
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5.089339624268981</v>
+        <v>5.08933962426898</v>
       </c>
       <c r="E105" t="n">
         <v>0.1</v>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6.452614185742564</v>
+        <v>6.452614185742563</v>
       </c>
       <c r="E137" t="n">
         <v>0.5</v>
@@ -10305,7 +10305,7 @@
         <v>0.8</v>
       </c>
       <c r="F183" t="n">
-        <v>5.624805260697462</v>
+        <v>5.624805260697461</v>
       </c>
       <c r="G183" t="n">
         <v>3.5</v>
@@ -12243,13 +12243,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>7.275827765023438</v>
+        <v>7.275827765023437</v>
       </c>
       <c r="E219" t="n">
         <v>0.5</v>
       </c>
       <c r="F219" t="n">
-        <v>6.253066691852203</v>
+        <v>6.253066691852202</v>
       </c>
       <c r="G219" t="n">
         <v>5</v>
@@ -12789,7 +12789,7 @@
         <v>0.625</v>
       </c>
       <c r="F229" t="n">
-        <v>5.68980187545711</v>
+        <v>5.689801875457109</v>
       </c>
       <c r="G229" t="n">
         <v>5</v>
@@ -15861,7 +15861,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5.907528813357314</v>
+        <v>5.907528813357312</v>
       </c>
       <c r="E286" t="n">
         <v>0.9</v>
@@ -16461,7 +16461,7 @@
         <v>0.6</v>
       </c>
       <c r="F297" t="n">
-        <v>5.603777592326137</v>
+        <v>5.603777592326135</v>
       </c>
       <c r="G297" t="n">
         <v>4</v>
@@ -16839,7 +16839,7 @@
         <v>0.2</v>
       </c>
       <c r="F304" t="n">
-        <v>5.889491878040422</v>
+        <v>5.889491878040421</v>
       </c>
       <c r="G304" t="n">
         <v>4.5</v>
@@ -16995,7 +16995,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>5.975670656871187</v>
+        <v>5.975670656871186</v>
       </c>
       <c r="E307" t="n">
         <v>0.8</v>
@@ -17055,7 +17055,7 @@
         <v>0.15</v>
       </c>
       <c r="F308" t="n">
-        <v>5.395923834709345</v>
+        <v>5.395923834709344</v>
       </c>
       <c r="G308" t="n">
         <v>5</v>
@@ -19377,7 +19377,7 @@
         <v>0.7</v>
       </c>
       <c r="F351" t="n">
-        <v>5.603777592326137</v>
+        <v>5.603777592326135</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -22125,7 +22125,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>6.831110822452418</v>
+        <v>6.831110822452417</v>
       </c>
       <c r="E402" t="n">
         <v>0.75</v>
@@ -22185,7 +22185,7 @@
         <v>0.3</v>
       </c>
       <c r="F403" t="n">
-        <v>5.603777592326137</v>
+        <v>5.603777592326135</v>
       </c>
       <c r="G403" t="n">
         <v>4.5</v>
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>7.98742683719922</v>
+        <v>7.987426837199219</v>
       </c>
       <c r="E411" t="n">
         <v>0.2</v>
@@ -23043,7 +23043,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5.667848456396349</v>
+        <v>5.667848456396348</v>
       </c>
       <c r="E419" t="n">
         <v>0.8</v>
@@ -27417,7 +27417,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>5.130283980056363</v>
+        <v>5.130283980056362</v>
       </c>
       <c r="E500" t="n">
         <v>0.5</v>
@@ -27909,7 +27909,7 @@
         <v>0.7</v>
       </c>
       <c r="F509" t="n">
-        <v>7.261230446885682</v>
+        <v>7.261230446885681</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -27957,7 +27957,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>6.021546251318413</v>
+        <v>6.021546251318412</v>
       </c>
       <c r="E510" t="n">
         <v>0.9</v>
@@ -28119,7 +28119,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>6.301980827809549</v>
+        <v>6.301980827809548</v>
       </c>
       <c r="E513" t="n">
         <v>0.1</v>
@@ -28443,7 +28443,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>5.025680265959363</v>
+        <v>5.025680265959362</v>
       </c>
       <c r="E519" t="n">
         <v>0.95</v>
@@ -28983,7 +28983,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>7.301980827809549</v>
+        <v>7.301980827809548</v>
       </c>
       <c r="E529" t="n">
         <v>0.875</v>
@@ -29475,7 +29475,7 @@
         <v>0.875</v>
       </c>
       <c r="F538" t="n">
-        <v>5.584342006596229</v>
+        <v>5.584342006596228</v>
       </c>
       <c r="G538" t="n">
         <v>4</v>
@@ -31629,7 +31629,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>4.98742683719922</v>
+        <v>4.987426837199219</v>
       </c>
       <c r="E578" t="n">
         <v>0.75</v>
@@ -32547,7 +32547,7 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>5.844569694342077</v>
+        <v>5.844569694342076</v>
       </c>
       <c r="E595" t="n">
         <v>0.7</v>
@@ -32817,7 +32817,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>6.057906852259721</v>
+        <v>6.05790685225972</v>
       </c>
       <c r="E600" t="n">
         <v>0.825</v>
@@ -33141,7 +33141,7 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>4.818189189088332</v>
+        <v>4.818189189088331</v>
       </c>
       <c r="E606" t="n">
         <v>0.95</v>
@@ -33201,7 +33201,7 @@
         <v>0.5</v>
       </c>
       <c r="F607" t="n">
-        <v>6.253066691852203</v>
+        <v>6.253066691852202</v>
       </c>
       <c r="G607" t="n">
         <v>3</v>
@@ -33525,7 +33525,7 @@
         <v>0.5</v>
       </c>
       <c r="F613" t="n">
-        <v>5.298627720881941</v>
+        <v>5.298627720881943</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -35091,7 +35091,7 @@
         <v>0.7</v>
       </c>
       <c r="F642" t="n">
-        <v>5.253066691852203</v>
+        <v>5.253066691852202</v>
       </c>
       <c r="G642" t="n">
         <v>5</v>
@@ -36219,13 +36219,13 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>6.343621137974006</v>
+        <v>6.343621137974005</v>
       </c>
       <c r="E663" t="n">
         <v>0.925</v>
       </c>
       <c r="F663" t="n">
-        <v>5.31806330661185</v>
+        <v>5.318063306611849</v>
       </c>
       <c r="G663" t="n">
         <v>4.5</v>
@@ -37407,7 +37407,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>5.55383101843525</v>
+        <v>5.553831018435249</v>
       </c>
       <c r="E685" t="n">
         <v>0.75</v>
@@ -38385,7 +38385,7 @@
         <v>0.625</v>
       </c>
       <c r="F703" t="n">
-        <v>6.746634735183279</v>
+        <v>6.746634735183278</v>
       </c>
       <c r="G703" t="n">
         <v>4</v>
